--- a/uploads/excel-file.xlsx
+++ b/uploads/excel-file.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -25,25 +25,13 @@
     <t>ScoreObtained</t>
   </si>
   <si>
-    <t>Ja</t>
-  </si>
-  <si>
-    <t>sja@s.x</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Japnor</t>
-  </si>
-  <si>
-    <t>dj@a.k</t>
-  </si>
-  <si>
-    <t>123</t>
+    <t>kjsdnjsnd</t>
+  </si>
+  <si>
+    <t>jaskarn@s.d</t>
+  </si>
+  <si>
+    <t>123`</t>
   </si>
   <si>
     <t>1</t>
@@ -423,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,49 +440,6 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/excel-file.xlsx
+++ b/uploads/excel-file.xlsx
@@ -1,53 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjapn\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49B90170-0E48-49B3-A9D0-B834C1041667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{57EEAF6E-AEA6-4251-AB51-7BE481541B73}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Quiz Results" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>ScoreObtained</t>
-  </si>
-  <si>
-    <t>kjsdnjsnd</t>
-  </si>
-  <si>
-    <t>jaskarn@s.d</t>
-  </si>
-  <si>
-    <t>123`</t>
-  </si>
-  <si>
-    <t>1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer1</t>
+  </si>
+  <si>
+    <t>Correct Answer</t>
+  </si>
+  <si>
+    <t>Answer2</t>
+  </si>
+  <si>
+    <t>Answer3</t>
+  </si>
+  <si>
+    <t>Answer4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,44 +119,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -165,14 +184,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -200,6 +236,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -211,180 +264,136 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
     <a:lnDef>
       <a:spPr/>
       <a:bodyPr/>
@@ -406,15 +415,28 @@
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CA8C24-7868-47F3-92ED-2D2C1B31A232}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,28 +444,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/uploads/excel-file.xlsx
+++ b/uploads/excel-file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjapn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49B90170-0E48-49B3-A9D0-B834C1041667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10E176E-A073-47A4-80CE-5F81E09261CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{57EEAF6E-AEA6-4251-AB51-7BE481541B73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{57EEAF6E-AEA6-4251-AB51-7BE481541B73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="6">
   <si>
     <t>Question</t>
   </si>
@@ -425,18 +425,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CA8C24-7868-47F3-92ED-2D2C1B31A232}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,6 +453,386 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
         <v>2</v>
       </c>
     </row>

--- a/uploads/excel-file.xlsx
+++ b/uploads/excel-file.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B6CDB7-3C21-4F1F-AA53-51DFC8337BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Quiz Results" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Quiz Results" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -32,35 +28,44 @@
     <t>ScoreObtained</t>
   </si>
   <si>
-    <t>sjapnoor11@gmail.com</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>asf;,</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>hnji</t>
-  </si>
-  <si>
-    <t>naji</t>
+    <t>wkjfn</t>
+  </si>
+  <si>
+    <t>lwklefn@wejefn.g</t>
+  </si>
+  <si>
+    <t>ejefn</t>
+  </si>
+  <si>
+    <t>jnj</t>
+  </si>
+  <si>
+    <t>gfhfgh</t>
+  </si>
+  <si>
+    <t>rerz@rhdh.tyjuk</t>
+  </si>
+  <si>
+    <t>qwr</t>
+  </si>
+  <si>
+    <t>kkyu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -423,16 +428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,42 +449,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/uploads/excel-file.xlsx
+++ b/uploads/excel-file.xlsx
@@ -1,71 +1,303 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad9cabfdd23ce5d4/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{2C430E50-140B-495C-A8A2-826FBCBB6BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{712A221A-3B02-4C3F-AE7D-039C313D1D9B}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB225A11-B2F8-4DDD-9C97-D5DEAD445BAF}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Quiz Results" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Institution</t>
-  </si>
-  <si>
-    <t>ScoreObtained</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>wkjfn</t>
-  </si>
-  <si>
-    <t>lwklefn@wejefn.g</t>
-  </si>
-  <si>
-    <t>ejefn</t>
-  </si>
-  <si>
-    <t>jnj</t>
-  </si>
-  <si>
-    <t>gfhfgh</t>
-  </si>
-  <si>
-    <t>rerz@rhdh.tyjuk</t>
-  </si>
-  <si>
-    <t>qwr</t>
-  </si>
-  <si>
-    <t>kkyu</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
+  <si>
+    <t>ਡਰੱਗ ਦੀ ਕੋਸ਼ਿਸ਼ ਕਰਨ ਦੀ ਪਹਿਲੀ ਘਟਨਾ ਦਾ ਵਰਣਨ ਕਰਨ ਲਈ ਵਰਤਿਆ ਜਾਣ ਵਾਲਾ ਸ਼ਬਦ ਕੀ ਹੈ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਸ਼ੁਰੂਆਤ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਆਦਤ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਡੀਟੌਕਸੀਫਿਕੇਸ਼ਨ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਉਪਰੋਕਤ ਵਿੱਚੋਂ ਕੋਈ ਨਹੀਂ</t>
+  </si>
+  <si>
+    <t>ਇਹਨਾਂ ਵਿੱਚੋਂ ਕਿਹੜਾ ਇੱਕ ਆਮ ਕਾਰਨ ਹੈ ਕਿ ਲੋਕ ਸ਼ੁਰੂ ਵਿੱਚ ਨਸ਼ੇ ਦੀ ਕੋਸ਼ਿਸ਼ ਕਰ ਸਕਦੇ ਹਨ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਉਤਸੁਕਤਾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਹਾਣੀਆਂ ਦਾ ਦਬਾਅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਤਣਾਅ ਨਾਲ ਨਜਿੱਠਣਾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਉਪਰੋਕਤ ਸਾਰੇ</t>
+  </si>
+  <si>
+    <t>ਨਸ਼ੇ ਦੀ ਲਤ ਤੋਂ ਬਚਣ ਲਈ ਕੁਝ ਸੰਭਾਵੀ ਸਾਵਧਾਨੀਆਂ ਕੀ ਹਨ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਆਪਣੇ ਆਪ ਨੂੰ ਸਹਿਯੋਗੀ ਦੋਸਤਾਂ ਅਤੇ ਪਰਿਵਾਰ ਨਾਲ ਘੇਰਨਾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਕਿਸੇ ਸਲਾਹਕਾਰ ਜਾਂ ਥੈਰੇਪਿਸਟ ਤੋਂ ਮਦਦ ਮੰਗਣਾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਸਿਹਤਮੰਦ ਸ਼ੌਕ ਅਤੇ ਗਤੀਵਿਧੀਆਂ ਵਿੱਚ ਸ਼ਾਮਲ ਹੋਣਾ</t>
+  </si>
+  <si>
+    <t>ਕਿੱਕ ਡਰੱਗ ਆਸਟ੍ਰੇਲੀਆ ਨਸ਼ਾਖੋਰੀ ਦੇ ਮੂਲ ਕਾਰਨਾਂ ਨੂੰ ਕਿਵੇਂ ਹੱਲ ਕਰਦਾ ਹੈ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਵਿਦਿਅਕ ਪ੍ਰੋਗਰਾਮ ਅਤੇ ਸਰੋਤ ਪ੍ਰਦਾਨ ਕਰਕੇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਕਿਸ਼ੋਰਾਂ ਵਿੱਚ ਨਸ਼ੇ ਦੀ ਵਰਤੋਂ ਨੂੰ ਉਤਸ਼ਾਹਿਤ ਕਰਕੇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਅੰਤਰੀਵ ਮੁੱਦਿਆਂ ਨੂੰ ਨਜ਼ਰਅੰਦਾਜ਼ ਕਰਕੇ</t>
+  </si>
+  <si>
+    <t>ਨਸ਼ੇ ਦੀ ਲਤ ਦਾ ਇੱਕ ਸੰਭਾਵੀ ਨਤੀਜਾ ਕੀ ਹੈ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਸਮੁੱਚੀ ਸਿਹਤ ਵਿੱਚ ਸੁਧਾਰ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਹਾਦਸਿਆਂ ਅਤੇ ਸੱਟਾਂ ਦੇ ਵਧੇ ਹੋਏ ਜੋਖਮ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਬਿਹਤਰ ਅਕਾਦਮਿਕ ਪ੍ਰਦਰਸ਼ਨ</t>
+  </si>
+  <si>
+    <t>ਇੱਕ ਆਮ ਸੰਕੇਤ ਕੀ ਹੈ ਕਿ ਕੋਈ ਵਿਅਕਤੀ ਨਸ਼ੇ ਦੀ ਲਤ ਨਾਲ ਸੰਘਰਸ਼ ਕਰ ਰਿਹਾ ਹੋ ਸਕਦਾ ਹੈ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਸਮਾਜਿਕ ਰੁਝੇਵਿਆਂ ਵਿੱਚ ਵਾਧਾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਪਰਿਵਾਰ ਅਤੇ ਦੋਸਤਾਂ ਤੋਂ ਦੂਰੀ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਵਧੇ ਹੋਏ ਫੈਸਲੇ ਲੈਣ ਦੇ ਹੁਨਰ</t>
+  </si>
+  <si>
+    <t>ਇਹਨਾਂ ਵਿੱਚੋਂ ਕਿਹੜਾ ਨਸ਼ਾਖੋਰੀ ਨੂੰ ਰੋਕਣ ਲਈ ਸਾਵਧਾਨੀ ਵਾਲਾ ਉਪਾਅ ਨਹੀਂ ਹੈ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਡਾਕਟਰ ਦੀ ਨਿਗਰਾਨੀ ਤੋਂ ਬਿਨਾਂ ਨੁਸਖ਼ੇ ਵਾਲੀਆਂ ਦਵਾਈਆਂ ਦੀ ਨਿਯਮਤ ਵਰਤੋਂ ਕਰਨਾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਨਸ਼ੀਲੇ ਪਦਾਰਥਾਂ ਦੀ ਵਰਤੋਂ ਦੇ ਜੋਖਮਾਂ ਬਾਰੇ ਆਪਣੇ ਆਪ ਨੂੰ ਸਿੱਖਿਅਤ ਕਰਨਾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਤਣਾਅ ਲਈ ਸਿਹਤਮੰਦ ਢੰਗ ਨਾਲ ਮੁਕਾਬਲਾ ਕਰਨਾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਭਰੋਸੇਯੋਗ ਬਾਲਗਾਂ ਜਾਂ ਪੇਸ਼ੇਵਰਾਂ ਤੋਂ ਸਹਾਇਤਾ ਦੀ ਮੰਗ ਕਰਨਾ</t>
+  </si>
+  <si>
+    <t>ਨਸ਼ਿਆਂ ਨੂੰ ਰੋਕਣ ਵਿੱਚ ਸਿੱਖਿਆ ਕੀ ਭੂਮਿਕਾ ਨਿਭਾਉਂਦੀ ਹੈ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਇਹ ਵਿਅਕਤੀਆਂ ਨੂੰ ਨਸ਼ੀਲੇ ਪਦਾਰਥਾਂ ਦੀ ਵਰਤੋਂ ਦੇ ਨਤੀਜਿਆਂ ਨੂੰ ਸਮਝਣ ਵਿੱਚ ਮਦਦ ਕਰਦਾ ਹੈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਇਹ ਨਸ਼ਿਆਂ ਦੇ ਨਾਲ ਪ੍ਰਯੋਗ ਨੂੰ ਉਤਸ਼ਾਹਿਤ ਕਰਦਾ ਹੈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਇਹ ਨਸ਼ੇ ਦੀ ਵਰਤੋਂ ਪ੍ਰਤੀ ਲਾਪਰਵਾਹੀ ਵਾਲੇ ਰਵੱਈਏ ਨੂੰ ਉਤਸ਼ਾਹਿਤ ਕਰਦਾ ਹੈ</t>
+  </si>
+  <si>
+    <t>ਨਸ਼ੇ ਦੀ ਲਤ ਨਾਲ ਜੂਝ ਰਹੇ ਕਿਸੇ ਦੋਸਤ ਜਾਂ ਪਰਿਵਾਰ ਦੇ ਮੈਂਬਰ ਦੀ ਮਦਦ ਕਿਵੇਂ ਕੀਤੀ ਜਾ ਸਕਦੀ ਹੈ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਉਹਨਾਂ ਦੇ ਵਿਵਹਾਰ ਨੂੰ ਨਜ਼ਰਅੰਦਾਜ਼ ਕਰਨਾ ਅਤੇ ਦਿਖਾਵਾ ਕਰਨਾ ਸਭ ਕੁਝ ਠੀਕ ਹੈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਉਹਨਾਂ ਨੂੰ ਪੇਸ਼ੇਵਰਾਂ ਤੋਂ ਮਦਦ ਲੈਣ ਲਈ ਉਤਸ਼ਾਹਿਤ ਕਰਨਾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਏਕਤਾ ਦਿਖਾਉਣ ਲਈ ਉਹਨਾਂ ਨਾਲ ਨਸ਼ੀਲੇ ਪਦਾਰਥਾਂ ਦੀ ਵਰਤੋਂ ਵਿੱਚ ਹਿੱਸਾ ਲੈਣਾ</t>
+  </si>
+  <si>
+    <t>ਜੇਕਰ ਤੁਹਾਨੂੰ ਸ਼ੱਕ ਹੈ ਕਿ ਕੋਈ ਵਿਅਕਤੀ ਨਸ਼ੇ ਦੀ ਓਵਰਡੋਜ਼ ਲੈ ਰਿਹਾ ਹੈ ਤਾਂ ਸਭ ਤੋਂ ਵਧੀਆ ਕਾਰਵਾਈ ਕੀ ਹੈ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਉਹਨਾਂ ਨੂੰ ਇਕੱਲੇ ਛੱਡੋ ਅਤੇ ਉਮੀਦ ਕਰੋ ਕਿ ਉਹ ਆਪਣੇ ਆਪ ਠੀਕ ਹੋ ਜਾਣਗੇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਐਮਰਜੈਂਸੀ ਸੇਵਾਵਾਂ ਨੂੰ ਤੁਰੰਤ ਕਾਲ ਕਰੋ ਅਤੇ ਮਦਦ ਆਉਣ ਤੱਕ ਉਹਨਾਂ ਦੇ ਨਾਲ ਰਹੋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਉਹਨਾਂ ਨੂੰ ਸੌਣ ਲਈ ਕਿਸੇ ਦੋਸਤ ਦੇ ਘਰ ਲੈ ਜਾਓ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਨਿਰਭਰਤਾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਲਾਲਸਾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਪ੍ਰਯੋਗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਸਹਿਣਸ਼ੀਲਤਾ</t>
+  </si>
+  <si>
+    <t>ਇਹਨਾਂ ਵਿੱਚੋਂ ਕਿਹੜੀ ਨਵੀਂ ਦਵਾਈ ਲੈਣ ਦਾ ਸਭ ਤੋਂ ਸੁਰੱਖਿਅਤ ਤਰੀਕਾ ਹੈ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਕਿਸੇ ਦੋਸਤ ਨਾਲ ਨੁਸਖ਼ਾ ਸਾਂਝਾ ਕਰਨਾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਸਿਫ਼ਾਰਿਸ਼ ਕੀਤੀ ਖੁਰਾਕ ਤੋਂ ਵੱਧ ਲੈਣਾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਡਾਕਟਰ ਦੀਆਂ ਹਿਦਾਇਤਾਂ ਦਾ ਬਿਲਕੁਲ ਪਾਲਣ ਕਰਨਾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਇਸ ਨੂੰ ਅਲਕੋਹਲ ਦੇ ਨਾਲ ਲੈਣਾ</t>
+  </si>
+  <si>
+    <t>ਜੇਕਰ ਕੋਈ ਤੁਹਾਨੂੰ ਨਸ਼ੇ ਦੀ ਪੇਸ਼ਕਸ਼ ਕਰਦਾ ਹੈ ਤਾਂ ਉਹਨਾਂ ਨੂੰ ਨਾਂਹ ਕਰਨ ਦਾ ਵਧੀਆ ਤਰੀਕਾ ਕੀ ਹੈ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਕੋਈ ਬਹਾਨਾ ਬਣਾਓ ਅਤੇ ਚਲੇ ਜਾਓ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਸਮਝਾਓ ਕਿ ਤੁਸੀਂ ਮੁਸੀਬਤ ਵਿੱਚ ਨਹੀਂ ਪੈਣਾ ਚਾਹੁੰਦੇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਉਹਨਾਂ 'ਤੇ ਵੀ ਕੋਸ਼ਿਸ਼ ਕਰਨ ਲਈ ਦਬਾਅ ਪਾਓ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਚੀਕਣਾ ਅਤੇ ਗੁੱਸਾ ਕਰਨਾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਇਸ ਲਈ ਉਹ ਤੁਹਾਡੇ ਲਈ ਸਭ ਤੋਂ ਵਧੀਆ ਦਵਾਈ ਲਿਖ ਸਕਦੇ ਹਨ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਉਹ ਤੁਹਾਡਾ ਨਿਰਣਾ ਕਰ ਸਕਦੇ ਹਨ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਮੁਫਤ ਜਾਂਚ ਕਰਵਾਉਣ ਤੋਂ ਬਚਣ ਲਈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਡਾਕਟਰਾਂ ਨੂੰ ਇਹ ਜਾਣਕਾਰੀ ਜਾਣਨ ਦੀ ਲੋੜ ਨਹੀਂ ਹੈ</t>
+  </si>
+  <si>
+    <t>ਜੇਕਰ ਤੁਹਾਨੂੰ ਲੱਗਦਾ ਹੈ ਕਿ ਕੋਈ ਦੋਸਤ ਨਸ਼ੇ ਦੀ ਵਰਤੋਂ ਕਰ ਰਿਹਾ ਹੈ ਤਾਂ ਸਭ ਤੋਂ ਵਧੀਆ ਕੀ ਹੈ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਇਸ ਨੂੰ ਨਜ਼ਰਅੰਦਾਜ਼ ਕਰੋ ਅਤੇ ਉਮੀਦ ਕਰੋ ਕਿ ਉਹ ਆਪਣੇ ਆਪ ਹੀ ਰੁਕ ਜਾਂਦੇ ਹਨ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਉਹਨਾਂ ਨਾਲ ਖੁੱਲ ਕੇ ਗੱਲ ਕਰੋ ਅਤੇ ਆਪਣਾ ਸਮਰਥਨ ਪੇਸ਼ ਕਰੋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਆਪਣੇ ਮਾਪਿਆਂ ਨੂੰ ਦੱਸਣ ਦੀ ਧਮਕੀ ਦਿਓ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਵਰਤਣ ਲਈ ਉਹਨਾਂ ਦਾ ਮਜ਼ਾਕ ਉਡਾਓ</t>
+  </si>
+  <si>
+    <t>ਨਸ਼ੇ ਦੀ ਵਰਤੋਂ ਨਾਲ ਸੰਘਰਸ਼ ਕਰ ਰਹੇ ਲੋਕਾਂ ਦੀ ਮਦਦ ਲਈ ਬਹੁਤ ਸਾਰੇ ਸਰੋਤ ਉਪਲਬਧ ਹਨ। ਇਹਨਾਂ ਸਰੋਤਾਂ ਵਿੱਚ ਸ਼ਾਮਲ ਹੋ ਸਕਦੇ ਹਨ:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਸਹਾਇਤਾ ਸਮੂਹ ਅਤੇ ਹੌਟਲਾਈਨਾਂ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਨਜ਼ਰਬੰਦੀ ਕੇਂਦਰ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਦਵਾਈਆਂ ਵੇਚਣ ਵਾਲੀਆਂ ਥਾਵਾਂ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਸਕੂਲ ਵਿੱਚ ਗੁੰਡੇ</t>
+  </si>
+  <si>
+    <t>ਨਸ਼ੇ ਦੀ ਵਰਤੋਂ ਕੀਤੇ ਬਿਨਾਂ ਤਣਾਅ ਨਾਲ ਨਜਿੱਠਣ ਦਾ ਵਧੀਆ ਤਰੀਕਾ ਕੀ ਹੈ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਕਿਸੇ ਭਰੋਸੇਮੰਦ ਦੋਸਤ ਜਾਂ ਪਰਿਵਾਰਕ ਮੈਂਬਰ ਨਾਲ ਗੱਲ ਕਰੋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ਕਸਰਤ ਕਰੋ ਜਾਂ ਸੰਗੀਤ ਸੁਣੋ</t>
+  </si>
+  <si>
+    <t>ਡਰੱਗ ਦੀ ਵਰਤੋਂ ਕਰਨ ਦੀ ਤੀਬਰ ਇੱਛਾ ਲਈ ਕੀ ਸ਼ਬਦ ਹੈ,  ਭਾਵੇਂ ਤੁਸੀਂ ਜਾਣਦੇ ਹੋ ਕਿ ਇਹ ਨੁਕਸਾਨਦੇਹ ਹੈ?</t>
+  </si>
+  <si>
+    <t>ਤੁਸੀਂ ਕਿਹੜੀਆਂ ਦਵਾਈਆਂ ਲੈ ਰਹੇ ਹੋ,  ਇਸ ਬਾਰੇ ਆਪਣੇ ਡਾਕਟਰ ਨਾਲ ਇਮਾਨਦਾਰ ਹੋਣਾ ਮਹੱਤਵਪੂਰਨ ਹੈ। ਕਿਉਂ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ਆਪਣੇ ਆਪ ਨੂੰ ਆਪਣੇ ਕਮਰੇ ਵਿੱਚ ਅਲੱਗ ਰੱਖੋ </t>
+  </si>
+  <si>
+    <t>ਆਪਣੀਆਂ ਭਾਵਨਾਵਾਂ ਨੂੰ ਬੰਦ ਕਰੋ</t>
+  </si>
+  <si>
+    <t>ਨਸ਼ੇ ਦੀ ਵਰਤੋਂ ਕਰਨ ਲਈ ਹਾਣੀਆਂ ਦੇ ਦਬਾਅ ਤੋਂ ਬਚਣ ਲਈ ਤੁਸੀਂ ਕੀ ਕਰ ਸਕਦੇ ਹੋ?</t>
+  </si>
+  <si>
+    <t>ਆਪਣੇ ਆਪ ਨੂੰ ਸਕਾਰਾਤਮਕ ਲੋਕਾਂ ਨਾਲ ਘੇਰੋ ਜੋ ਨਸ਼ੇ ਦੀ ਵਰਤੋਂ ਨਹੀਂ ਕਰਦੇ</t>
+  </si>
+  <si>
+    <t>ਜੋ ਵੀ ਤੁਹਾਡੇ ਦੋਸਤ ਚਾਹੁੰਦੇ ਹਨ ਉਹ ਕਰਨ ਲਈ ਜ਼ਿੰਮੇਵਾਰ ਮਹਿਸੂਸ ਕਰੋ</t>
+  </si>
+  <si>
+    <t>ਸ਼ੇਖੀ ਮਾਰੋ ਕਿ ਤੁਸੀਂ ਕਿੰਨੀਆਂ ਦਵਾਈਆਂ ਦੀ ਕੋਸ਼ਿਸ਼ ਕੀਤੀ ਹੈ</t>
+  </si>
+  <si>
+    <t>ਆਪਣੀਆਂ ਯੋਜਨਾਵਾਂ ਬਾਰੇ ਝੂਠ ਬੋਲੋ ਤਾਂ ਜੋ ਤੁਹਾਡੇ 'ਤੇ ਦਬਾਅ ਨਾ ਪਾਇਆ ਜਾ ਸਕੇ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,6 +339,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -118,44 +354,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -183,14 +419,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -218,6 +471,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -229,180 +499,136 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
     <a:lnDef>
       <a:spPr/>
       <a:bodyPr/>
@@ -424,15 +650,33 @@
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6D8FBA-5643-4B40-A1A6-B47A34D16624}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="108.6640625" customWidth="1"/>
+    <col min="2" max="2" width="85.88671875" customWidth="1"/>
+    <col min="3" max="3" width="81.6640625" customWidth="1"/>
+    <col min="4" max="4" width="68.77734375" customWidth="1"/>
+    <col min="5" max="5" width="58.21875" customWidth="1"/>
+    <col min="6" max="6" width="72.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,48 +692,352 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uploads/excel-file.xlsx
+++ b/uploads/excel-file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad9cabfdd23ce5d4/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{2C430E50-140B-495C-A8A2-826FBCBB6BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{712A221A-3B02-4C3F-AE7D-039C313D1D9B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59E79D86-D6CF-4CE5-B74C-ADCAC3F86915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB225A11-B2F8-4DDD-9C97-D5DEAD445BAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE6B7359-9618-4DDE-AC9A-9EBA2938C75B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,255 +36,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
-  <si>
-    <t>ਡਰੱਗ ਦੀ ਕੋਸ਼ਿਸ਼ ਕਰਨ ਦੀ ਪਹਿਲੀ ਘਟਨਾ ਦਾ ਵਰਣਨ ਕਰਨ ਲਈ ਵਰਤਿਆ ਜਾਣ ਵਾਲਾ ਸ਼ਬਦ ਕੀ ਹੈ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਸ਼ੁਰੂਆਤ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਆਦਤ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਡੀਟੌਕਸੀਫਿਕੇਸ਼ਨ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਉਪਰੋਕਤ ਵਿੱਚੋਂ ਕੋਈ ਨਹੀਂ</t>
-  </si>
-  <si>
-    <t>ਇਹਨਾਂ ਵਿੱਚੋਂ ਕਿਹੜਾ ਇੱਕ ਆਮ ਕਾਰਨ ਹੈ ਕਿ ਲੋਕ ਸ਼ੁਰੂ ਵਿੱਚ ਨਸ਼ੇ ਦੀ ਕੋਸ਼ਿਸ਼ ਕਰ ਸਕਦੇ ਹਨ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਉਤਸੁਕਤਾ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਹਾਣੀਆਂ ਦਾ ਦਬਾਅ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਤਣਾਅ ਨਾਲ ਨਜਿੱਠਣਾ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਉਪਰੋਕਤ ਸਾਰੇ</t>
-  </si>
-  <si>
-    <t>ਨਸ਼ੇ ਦੀ ਲਤ ਤੋਂ ਬਚਣ ਲਈ ਕੁਝ ਸੰਭਾਵੀ ਸਾਵਧਾਨੀਆਂ ਕੀ ਹਨ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਆਪਣੇ ਆਪ ਨੂੰ ਸਹਿਯੋਗੀ ਦੋਸਤਾਂ ਅਤੇ ਪਰਿਵਾਰ ਨਾਲ ਘੇਰਨਾ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਕਿਸੇ ਸਲਾਹਕਾਰ ਜਾਂ ਥੈਰੇਪਿਸਟ ਤੋਂ ਮਦਦ ਮੰਗਣਾ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਸਿਹਤਮੰਦ ਸ਼ੌਕ ਅਤੇ ਗਤੀਵਿਧੀਆਂ ਵਿੱਚ ਸ਼ਾਮਲ ਹੋਣਾ</t>
-  </si>
-  <si>
-    <t>ਕਿੱਕ ਡਰੱਗ ਆਸਟ੍ਰੇਲੀਆ ਨਸ਼ਾਖੋਰੀ ਦੇ ਮੂਲ ਕਾਰਨਾਂ ਨੂੰ ਕਿਵੇਂ ਹੱਲ ਕਰਦਾ ਹੈ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਵਿਦਿਅਕ ਪ੍ਰੋਗਰਾਮ ਅਤੇ ਸਰੋਤ ਪ੍ਰਦਾਨ ਕਰਕੇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਕਿਸ਼ੋਰਾਂ ਵਿੱਚ ਨਸ਼ੇ ਦੀ ਵਰਤੋਂ ਨੂੰ ਉਤਸ਼ਾਹਿਤ ਕਰਕੇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਅੰਤਰੀਵ ਮੁੱਦਿਆਂ ਨੂੰ ਨਜ਼ਰਅੰਦਾਜ਼ ਕਰਕੇ</t>
-  </si>
-  <si>
-    <t>ਨਸ਼ੇ ਦੀ ਲਤ ਦਾ ਇੱਕ ਸੰਭਾਵੀ ਨਤੀਜਾ ਕੀ ਹੈ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਸਮੁੱਚੀ ਸਿਹਤ ਵਿੱਚ ਸੁਧਾਰ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਹਾਦਸਿਆਂ ਅਤੇ ਸੱਟਾਂ ਦੇ ਵਧੇ ਹੋਏ ਜੋਖਮ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਬਿਹਤਰ ਅਕਾਦਮਿਕ ਪ੍ਰਦਰਸ਼ਨ</t>
-  </si>
-  <si>
-    <t>ਇੱਕ ਆਮ ਸੰਕੇਤ ਕੀ ਹੈ ਕਿ ਕੋਈ ਵਿਅਕਤੀ ਨਸ਼ੇ ਦੀ ਲਤ ਨਾਲ ਸੰਘਰਸ਼ ਕਰ ਰਿਹਾ ਹੋ ਸਕਦਾ ਹੈ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਸਮਾਜਿਕ ਰੁਝੇਵਿਆਂ ਵਿੱਚ ਵਾਧਾ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਪਰਿਵਾਰ ਅਤੇ ਦੋਸਤਾਂ ਤੋਂ ਦੂਰੀ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਵਧੇ ਹੋਏ ਫੈਸਲੇ ਲੈਣ ਦੇ ਹੁਨਰ</t>
-  </si>
-  <si>
-    <t>ਇਹਨਾਂ ਵਿੱਚੋਂ ਕਿਹੜਾ ਨਸ਼ਾਖੋਰੀ ਨੂੰ ਰੋਕਣ ਲਈ ਸਾਵਧਾਨੀ ਵਾਲਾ ਉਪਾਅ ਨਹੀਂ ਹੈ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਡਾਕਟਰ ਦੀ ਨਿਗਰਾਨੀ ਤੋਂ ਬਿਨਾਂ ਨੁਸਖ਼ੇ ਵਾਲੀਆਂ ਦਵਾਈਆਂ ਦੀ ਨਿਯਮਤ ਵਰਤੋਂ ਕਰਨਾ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਨਸ਼ੀਲੇ ਪਦਾਰਥਾਂ ਦੀ ਵਰਤੋਂ ਦੇ ਜੋਖਮਾਂ ਬਾਰੇ ਆਪਣੇ ਆਪ ਨੂੰ ਸਿੱਖਿਅਤ ਕਰਨਾ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਤਣਾਅ ਲਈ ਸਿਹਤਮੰਦ ਢੰਗ ਨਾਲ ਮੁਕਾਬਲਾ ਕਰਨਾ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਭਰੋਸੇਯੋਗ ਬਾਲਗਾਂ ਜਾਂ ਪੇਸ਼ੇਵਰਾਂ ਤੋਂ ਸਹਾਇਤਾ ਦੀ ਮੰਗ ਕਰਨਾ</t>
-  </si>
-  <si>
-    <t>ਨਸ਼ਿਆਂ ਨੂੰ ਰੋਕਣ ਵਿੱਚ ਸਿੱਖਿਆ ਕੀ ਭੂਮਿਕਾ ਨਿਭਾਉਂਦੀ ਹੈ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਇਹ ਵਿਅਕਤੀਆਂ ਨੂੰ ਨਸ਼ੀਲੇ ਪਦਾਰਥਾਂ ਦੀ ਵਰਤੋਂ ਦੇ ਨਤੀਜਿਆਂ ਨੂੰ ਸਮਝਣ ਵਿੱਚ ਮਦਦ ਕਰਦਾ ਹੈ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਇਹ ਨਸ਼ਿਆਂ ਦੇ ਨਾਲ ਪ੍ਰਯੋਗ ਨੂੰ ਉਤਸ਼ਾਹਿਤ ਕਰਦਾ ਹੈ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਇਹ ਨਸ਼ੇ ਦੀ ਵਰਤੋਂ ਪ੍ਰਤੀ ਲਾਪਰਵਾਹੀ ਵਾਲੇ ਰਵੱਈਏ ਨੂੰ ਉਤਸ਼ਾਹਿਤ ਕਰਦਾ ਹੈ</t>
-  </si>
-  <si>
-    <t>ਨਸ਼ੇ ਦੀ ਲਤ ਨਾਲ ਜੂਝ ਰਹੇ ਕਿਸੇ ਦੋਸਤ ਜਾਂ ਪਰਿਵਾਰ ਦੇ ਮੈਂਬਰ ਦੀ ਮਦਦ ਕਿਵੇਂ ਕੀਤੀ ਜਾ ਸਕਦੀ ਹੈ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਉਹਨਾਂ ਦੇ ਵਿਵਹਾਰ ਨੂੰ ਨਜ਼ਰਅੰਦਾਜ਼ ਕਰਨਾ ਅਤੇ ਦਿਖਾਵਾ ਕਰਨਾ ਸਭ ਕੁਝ ਠੀਕ ਹੈ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਉਹਨਾਂ ਨੂੰ ਪੇਸ਼ੇਵਰਾਂ ਤੋਂ ਮਦਦ ਲੈਣ ਲਈ ਉਤਸ਼ਾਹਿਤ ਕਰਨਾ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਏਕਤਾ ਦਿਖਾਉਣ ਲਈ ਉਹਨਾਂ ਨਾਲ ਨਸ਼ੀਲੇ ਪਦਾਰਥਾਂ ਦੀ ਵਰਤੋਂ ਵਿੱਚ ਹਿੱਸਾ ਲੈਣਾ</t>
-  </si>
-  <si>
-    <t>ਜੇਕਰ ਤੁਹਾਨੂੰ ਸ਼ੱਕ ਹੈ ਕਿ ਕੋਈ ਵਿਅਕਤੀ ਨਸ਼ੇ ਦੀ ਓਵਰਡੋਜ਼ ਲੈ ਰਿਹਾ ਹੈ ਤਾਂ ਸਭ ਤੋਂ ਵਧੀਆ ਕਾਰਵਾਈ ਕੀ ਹੈ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਉਹਨਾਂ ਨੂੰ ਇਕੱਲੇ ਛੱਡੋ ਅਤੇ ਉਮੀਦ ਕਰੋ ਕਿ ਉਹ ਆਪਣੇ ਆਪ ਠੀਕ ਹੋ ਜਾਣਗੇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਐਮਰਜੈਂਸੀ ਸੇਵਾਵਾਂ ਨੂੰ ਤੁਰੰਤ ਕਾਲ ਕਰੋ ਅਤੇ ਮਦਦ ਆਉਣ ਤੱਕ ਉਹਨਾਂ ਦੇ ਨਾਲ ਰਹੋ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਉਹਨਾਂ ਨੂੰ ਸੌਣ ਲਈ ਕਿਸੇ ਦੋਸਤ ਦੇ ਘਰ ਲੈ ਜਾਓ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਨਿਰਭਰਤਾ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਲਾਲਸਾ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਪ੍ਰਯੋਗ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਸਹਿਣਸ਼ੀਲਤਾ</t>
-  </si>
-  <si>
-    <t>ਇਹਨਾਂ ਵਿੱਚੋਂ ਕਿਹੜੀ ਨਵੀਂ ਦਵਾਈ ਲੈਣ ਦਾ ਸਭ ਤੋਂ ਸੁਰੱਖਿਅਤ ਤਰੀਕਾ ਹੈ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਕਿਸੇ ਦੋਸਤ ਨਾਲ ਨੁਸਖ਼ਾ ਸਾਂਝਾ ਕਰਨਾ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਸਿਫ਼ਾਰਿਸ਼ ਕੀਤੀ ਖੁਰਾਕ ਤੋਂ ਵੱਧ ਲੈਣਾ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਡਾਕਟਰ ਦੀਆਂ ਹਿਦਾਇਤਾਂ ਦਾ ਬਿਲਕੁਲ ਪਾਲਣ ਕਰਨਾ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਇਸ ਨੂੰ ਅਲਕੋਹਲ ਦੇ ਨਾਲ ਲੈਣਾ</t>
-  </si>
-  <si>
-    <t>ਜੇਕਰ ਕੋਈ ਤੁਹਾਨੂੰ ਨਸ਼ੇ ਦੀ ਪੇਸ਼ਕਸ਼ ਕਰਦਾ ਹੈ ਤਾਂ ਉਹਨਾਂ ਨੂੰ ਨਾਂਹ ਕਰਨ ਦਾ ਵਧੀਆ ਤਰੀਕਾ ਕੀ ਹੈ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਕੋਈ ਬਹਾਨਾ ਬਣਾਓ ਅਤੇ ਚਲੇ ਜਾਓ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਸਮਝਾਓ ਕਿ ਤੁਸੀਂ ਮੁਸੀਬਤ ਵਿੱਚ ਨਹੀਂ ਪੈਣਾ ਚਾਹੁੰਦੇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਉਹਨਾਂ 'ਤੇ ਵੀ ਕੋਸ਼ਿਸ਼ ਕਰਨ ਲਈ ਦਬਾਅ ਪਾਓ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਚੀਕਣਾ ਅਤੇ ਗੁੱਸਾ ਕਰਨਾ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਇਸ ਲਈ ਉਹ ਤੁਹਾਡੇ ਲਈ ਸਭ ਤੋਂ ਵਧੀਆ ਦਵਾਈ ਲਿਖ ਸਕਦੇ ਹਨ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਉਹ ਤੁਹਾਡਾ ਨਿਰਣਾ ਕਰ ਸਕਦੇ ਹਨ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਮੁਫਤ ਜਾਂਚ ਕਰਵਾਉਣ ਤੋਂ ਬਚਣ ਲਈ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਡਾਕਟਰਾਂ ਨੂੰ ਇਹ ਜਾਣਕਾਰੀ ਜਾਣਨ ਦੀ ਲੋੜ ਨਹੀਂ ਹੈ</t>
-  </si>
-  <si>
-    <t>ਜੇਕਰ ਤੁਹਾਨੂੰ ਲੱਗਦਾ ਹੈ ਕਿ ਕੋਈ ਦੋਸਤ ਨਸ਼ੇ ਦੀ ਵਰਤੋਂ ਕਰ ਰਿਹਾ ਹੈ ਤਾਂ ਸਭ ਤੋਂ ਵਧੀਆ ਕੀ ਹੈ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਇਸ ਨੂੰ ਨਜ਼ਰਅੰਦਾਜ਼ ਕਰੋ ਅਤੇ ਉਮੀਦ ਕਰੋ ਕਿ ਉਹ ਆਪਣੇ ਆਪ ਹੀ ਰੁਕ ਜਾਂਦੇ ਹਨ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਉਹਨਾਂ ਨਾਲ ਖੁੱਲ ਕੇ ਗੱਲ ਕਰੋ ਅਤੇ ਆਪਣਾ ਸਮਰਥਨ ਪੇਸ਼ ਕਰੋ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਆਪਣੇ ਮਾਪਿਆਂ ਨੂੰ ਦੱਸਣ ਦੀ ਧਮਕੀ ਦਿਓ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਵਰਤਣ ਲਈ ਉਹਨਾਂ ਦਾ ਮਜ਼ਾਕ ਉਡਾਓ</t>
-  </si>
-  <si>
-    <t>ਨਸ਼ੇ ਦੀ ਵਰਤੋਂ ਨਾਲ ਸੰਘਰਸ਼ ਕਰ ਰਹੇ ਲੋਕਾਂ ਦੀ ਮਦਦ ਲਈ ਬਹੁਤ ਸਾਰੇ ਸਰੋਤ ਉਪਲਬਧ ਹਨ। ਇਹਨਾਂ ਸਰੋਤਾਂ ਵਿੱਚ ਸ਼ਾਮਲ ਹੋ ਸਕਦੇ ਹਨ:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਸਹਾਇਤਾ ਸਮੂਹ ਅਤੇ ਹੌਟਲਾਈਨਾਂ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਨਜ਼ਰਬੰਦੀ ਕੇਂਦਰ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਦਵਾਈਆਂ ਵੇਚਣ ਵਾਲੀਆਂ ਥਾਵਾਂ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਸਕੂਲ ਵਿੱਚ ਗੁੰਡੇ</t>
-  </si>
-  <si>
-    <t>ਨਸ਼ੇ ਦੀ ਵਰਤੋਂ ਕੀਤੇ ਬਿਨਾਂ ਤਣਾਅ ਨਾਲ ਨਜਿੱਠਣ ਦਾ ਵਧੀਆ ਤਰੀਕਾ ਕੀ ਹੈ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਕਿਸੇ ਭਰੋਸੇਮੰਦ ਦੋਸਤ ਜਾਂ ਪਰਿਵਾਰਕ ਮੈਂਬਰ ਨਾਲ ਗੱਲ ਕਰੋ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ਕਸਰਤ ਕਰੋ ਜਾਂ ਸੰਗੀਤ ਸੁਣੋ</t>
-  </si>
-  <si>
-    <t>ਡਰੱਗ ਦੀ ਵਰਤੋਂ ਕਰਨ ਦੀ ਤੀਬਰ ਇੱਛਾ ਲਈ ਕੀ ਸ਼ਬਦ ਹੈ,  ਭਾਵੇਂ ਤੁਸੀਂ ਜਾਣਦੇ ਹੋ ਕਿ ਇਹ ਨੁਕਸਾਨਦੇਹ ਹੈ?</t>
-  </si>
-  <si>
-    <t>ਤੁਸੀਂ ਕਿਹੜੀਆਂ ਦਵਾਈਆਂ ਲੈ ਰਹੇ ਹੋ,  ਇਸ ਬਾਰੇ ਆਪਣੇ ਡਾਕਟਰ ਨਾਲ ਇਮਾਨਦਾਰ ਹੋਣਾ ਮਹੱਤਵਪੂਰਨ ਹੈ। ਕਿਉਂ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ਆਪਣੇ ਆਪ ਨੂੰ ਆਪਣੇ ਕਮਰੇ ਵਿੱਚ ਅਲੱਗ ਰੱਖੋ </t>
-  </si>
-  <si>
-    <t>ਆਪਣੀਆਂ ਭਾਵਨਾਵਾਂ ਨੂੰ ਬੰਦ ਕਰੋ</t>
-  </si>
-  <si>
-    <t>ਨਸ਼ੇ ਦੀ ਵਰਤੋਂ ਕਰਨ ਲਈ ਹਾਣੀਆਂ ਦੇ ਦਬਾਅ ਤੋਂ ਬਚਣ ਲਈ ਤੁਸੀਂ ਕੀ ਕਰ ਸਕਦੇ ਹੋ?</t>
-  </si>
-  <si>
-    <t>ਆਪਣੇ ਆਪ ਨੂੰ ਸਕਾਰਾਤਮਕ ਲੋਕਾਂ ਨਾਲ ਘੇਰੋ ਜੋ ਨਸ਼ੇ ਦੀ ਵਰਤੋਂ ਨਹੀਂ ਕਰਦੇ</t>
-  </si>
-  <si>
-    <t>ਜੋ ਵੀ ਤੁਹਾਡੇ ਦੋਸਤ ਚਾਹੁੰਦੇ ਹਨ ਉਹ ਕਰਨ ਲਈ ਜ਼ਿੰਮੇਵਾਰ ਮਹਿਸੂਸ ਕਰੋ</t>
-  </si>
-  <si>
-    <t>ਸ਼ੇਖੀ ਮਾਰੋ ਕਿ ਤੁਸੀਂ ਕਿੰਨੀਆਂ ਦਵਾਈਆਂ ਦੀ ਕੋਸ਼ਿਸ਼ ਕੀਤੀ ਹੈ</t>
-  </si>
-  <si>
-    <t>ਆਪਣੀਆਂ ਯੋਜਨਾਵਾਂ ਬਾਰੇ ਝੂਠ ਬੋਲੋ ਤਾਂ ਜੋ ਤੁਹਾਡੇ 'ਤੇ ਦਬਾਅ ਨਾ ਪਾਇਆ ਜਾ ਸਕੇ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+  <si>
+    <t>Drug addiction is caused by:</t>
+  </si>
+  <si>
+    <t>A single use of a drug</t>
+  </si>
+  <si>
+    <t>A combination of genetic and environmental factors</t>
+  </si>
+  <si>
+    <t>Lack of willpower</t>
+  </si>
+  <si>
+    <t>All of the above</t>
+  </si>
+  <si>
+    <t>Rehabilitation programs for drug addiction often include:</t>
+  </si>
+  <si>
+    <t>Medication only</t>
+  </si>
+  <si>
+    <t>Therapy only</t>
+  </si>
+  <si>
+    <t>A combination of medication and therapy</t>
+  </si>
+  <si>
+    <t>Locking people up until they stop using</t>
+  </si>
+  <si>
+    <t>What is the best way to help someone who is struggling with drug addiction?</t>
+  </si>
+  <si>
+    <t>Judge them and tell them they need to stop.</t>
+  </si>
+  <si>
+    <t>Offer support and encourage them to seek help.</t>
+  </si>
+  <si>
+    <t>Ignore the problem and hope it goes away.</t>
+  </si>
+  <si>
+    <t>Force them into rehab.</t>
+  </si>
+  <si>
+    <t>Which of these is an example of a legal drug that can be addictive?</t>
+  </si>
+  <si>
+    <t>Marijuana (depending on location)</t>
+  </si>
+  <si>
+    <t>Cocaine</t>
+  </si>
+  <si>
+    <t>Heroin</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>Talking to a friend or therapist</t>
+  </si>
+  <si>
+    <t>Listening to music</t>
+  </si>
+  <si>
+    <t>By calling a national helpline</t>
+  </si>
+  <si>
+    <t>Talking to a doctor</t>
+  </si>
+  <si>
+    <t>Both a and b</t>
+  </si>
+  <si>
+    <t>Neither a nor b</t>
+  </si>
+  <si>
+    <t>What is the term for the medical field that specializes in diagnosing and treating drug addiction?</t>
+  </si>
+  <si>
+    <t>Psychiatry</t>
+  </si>
+  <si>
+    <t>Addiction Medicine</t>
+  </si>
+  <si>
+    <t>Cardiology</t>
+  </si>
+  <si>
+    <t>Neurology</t>
+  </si>
+  <si>
+    <t>Relapse is a common occurrence in drug addiction recovery. What is the most important thing to do if someone relapses?</t>
+  </si>
+  <si>
+    <t>Give up on recovery altogether</t>
+  </si>
+  <si>
+    <t>Seek support and get back on track with treatment</t>
+  </si>
+  <si>
+    <t>Blame themselves and feel hopeless</t>
+  </si>
+  <si>
+    <t>Hide the relapse from everyone</t>
+  </si>
+  <si>
+    <t>What is a common risk factor for drug addiction?</t>
+  </si>
+  <si>
+    <t>Strong support system</t>
+  </si>
+  <si>
+    <t>Mental health issues</t>
+  </si>
+  <si>
+    <t>Easy access to healthy food</t>
+  </si>
+  <si>
+    <t>Positive role models</t>
+  </si>
+  <si>
+    <t>Someone who is addicted to drugs:</t>
+  </si>
+  <si>
+    <t>Can easily control their use</t>
+  </si>
+  <si>
+    <t>Experiences withdrawal symptoms when they stop using</t>
+  </si>
+  <si>
+    <t>Only uses them occasionally</t>
+  </si>
+  <si>
+    <t>Has no negative consequences on their life</t>
+  </si>
+  <si>
+    <t>What is a healthy way to cope with stress or difficult emotions,  instead of using drugs?</t>
+  </si>
+  <si>
+    <t>If you are concerned about your own drug use or someone else's,  where can you find help?</t>
   </si>
 </sst>
 </file>
@@ -337,10 +232,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,21 +550,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6D8FBA-5643-4B40-A1A6-B47A34D16624}">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC32B450-052D-4C3E-94FF-51C018F4045D}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="108.6640625" customWidth="1"/>
-    <col min="2" max="2" width="85.88671875" customWidth="1"/>
-    <col min="3" max="3" width="81.6640625" customWidth="1"/>
-    <col min="4" max="4" width="68.77734375" customWidth="1"/>
-    <col min="5" max="5" width="58.21875" customWidth="1"/>
-    <col min="6" max="6" width="72.88671875" customWidth="1"/>
+    <col min="1" max="1" width="97.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" customWidth="1"/>
+    <col min="3" max="3" width="62.21875" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="42.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -693,7 +584,7 @@
         <v>4</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -713,7 +604,7 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -730,24 +621,24 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -758,7 +649,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -773,27 +664,27 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -813,7 +704,7 @@
         <v>30</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -830,27 +721,27 @@
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -858,182 +749,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
